--- a/Parametros.xlsx
+++ b/Parametros.xlsx
@@ -4,23 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Caminhos e URLs para arquivos" sheetId="1" r:id="rId1"/>
     <sheet name="Nomes das colunas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
   <si>
     <t>Caminhos e URLs para abrir informações, ou baixá-las quando não estiverem disponíveis fisicamente</t>
   </si>
@@ -329,6 +325,9 @@
   </si>
   <si>
     <t>C:\Users\GEPH-IC\Documents\Betson\Laudo Pericial\REGISTRO GEPH-DHPP_2023.xlsx</t>
+  </si>
+  <si>
+    <t>tipoLocal</t>
   </si>
 </sst>
 </file>
@@ -381,7 +380,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -669,6 +668,39 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,7 +710,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -715,11 +747,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1099,7 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1110,10 +1148,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1254,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,30 +1313,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="36"/>
+      <c r="L1" s="42"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -1390,7 +1428,7 @@
       <c r="G4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="33" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1444,7 +1482,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>56</v>
       </c>
@@ -1470,7 +1508,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
@@ -1486,11 +1524,12 @@
       <c r="E8" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="25"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
@@ -1499,18 +1538,19 @@
       <c r="B9" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="33" t="s">
         <v>70</v>
       </c>
       <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="25"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="31"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>71</v>
       </c>
@@ -1520,7 +1560,7 @@
       <c r="C10" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="30" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1531,8 +1571,8 @@
       <c r="B11" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
@@ -1541,8 +1581,8 @@
       <c r="B12" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
@@ -1551,8 +1591,8 @@
       <c r="B13" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -1561,8 +1601,8 @@
       <c r="B14" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
@@ -1571,8 +1611,8 @@
       <c r="B15" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
@@ -1581,13 +1621,13 @@
       <c r="B16" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
@@ -1596,8 +1636,8 @@
       <c r="B17" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
@@ -1606,8 +1646,8 @@
       <c r="B18" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
@@ -1616,8 +1656,8 @@
       <c r="B19" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
@@ -1626,8 +1666,8 @@
       <c r="B20" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
@@ -1636,24 +1676,24 @@
       <c r="B21" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="30" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1661,8 +1701,16 @@
       <c r="A24" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="30" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Parametros.xlsx
+++ b/Parametros.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Caminhos e URLs para arquivos" sheetId="1" r:id="rId1"/>
     <sheet name="Nomes das colunas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
   <si>
     <t>Caminhos e URLs para abrir informações, ou baixá-las quando não estiverem disponíveis fisicamente</t>
   </si>
@@ -54,9 +53,6 @@
     <t>URL para tabela preenchida na base</t>
   </si>
   <si>
-    <t>https://onedrive.live.com/download.aspx?cid=0c5702aadd8306c5&amp;page=view&amp;resid=C5702AADD8306C5!6977&amp;parId=C5702AADD8306C5!1072&amp;app=Excel</t>
-  </si>
-  <si>
     <t>Caminho físico para o arquivo da tabela dos formulários</t>
   </si>
   <si>
@@ -64,9 +60,6 @@
   </si>
   <si>
     <t>URL para o arquivo da tabela dos formulários</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/spreadsheets/d/1_iu8HSeeTIRPI3ENQkQY4QCWXzIdJQBVJhy6w9USHGI/export?format=xlsx</t>
   </si>
   <si>
     <t>Informações Gerais</t>
@@ -1137,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1190,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1198,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1221,25 +1214,21 @@
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="str">
@@ -1247,7 +1236,7 @@
         <v>Nome da aba das informações gerais em Forms.xlsx</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1256,7 +1245,7 @@
         <v>Nome da aba das informações da vítima em Forms.xlsx</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1265,7 +1254,7 @@
         <v>Nome da aba das informações do veículo em Forms.xlsx</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1274,17 +1263,13 @@
         <v>Nome da aba das informações de balística Forms.xlsx</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1294,7 +1279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -1314,92 +1299,92 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="42"/>
       <c r="E1" s="42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1" s="42"/>
       <c r="G1" s="42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" s="42"/>
       <c r="I1" s="42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J1" s="42"/>
       <c r="K1" s="42" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L1" s="42"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="E3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>33</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -1408,124 +1393,124 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="E4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="G4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="33" t="s">
         <v>38</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="E5" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="F5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="G5" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="E6" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="F6" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="G6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="H6" s="26" t="s">
         <v>53</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="D7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="F7" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="23" t="s">
+      <c r="G7" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="H7" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="E8" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="F8" s="40" t="s">
         <v>65</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>67</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="35"/>
@@ -1533,16 +1518,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>70</v>
-      </c>
       <c r="D9" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -1552,74 +1537,74 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>73</v>
-      </c>
       <c r="D10" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
@@ -1631,86 +1616,86 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Parametros.xlsx
+++ b/Parametros.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
   <si>
     <t>Caminhos e URLs para abrir informações, ou baixá-las quando não estiverem disponíveis fisicamente</t>
   </si>
@@ -135,9 +135,6 @@
     <t>tipoLoc</t>
   </si>
   <si>
-    <t>Tipo do local</t>
-  </si>
-  <si>
     <t>NIC da vítima</t>
   </si>
   <si>
@@ -325,9 +322,6 @@
   </si>
   <si>
     <t>C:\Users\GEPH-IC\Documents\Betson\Laudo Pericial\REGISTRO GEPH-DHPP_2023.xlsx</t>
-  </si>
-  <si>
-    <t>tipoLocal</t>
   </si>
 </sst>
 </file>
@@ -380,7 +374,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -652,17 +646,6 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -699,9 +682,7 @@
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -710,7 +691,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -746,18 +727,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1148,10 +1131,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1182,7 +1165,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1190,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1198,7 +1181,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1295,7 +1278,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,30 +1296,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="42"/>
+      <c r="L1" s="44"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -1420,298 +1403,290 @@
         <v>37</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>39</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>44</v>
-      </c>
       <c r="E5" s="23" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F5" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>51</v>
-      </c>
       <c r="E6" s="23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F6" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="D7" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="H7" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="D9" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="31"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>73</v>
+      <c r="D10" s="29" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>73</v>
+        <v>97</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>57</v>
+        <v>98</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>63</v>
-      </c>
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Parametros.xlsx
+++ b/Parametros.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Caminhos e URLs para arquivos" sheetId="1" r:id="rId1"/>
     <sheet name="Nomes das colunas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -54,9 +53,6 @@
     <t>URL para tabela preenchida na base</t>
   </si>
   <si>
-    <t>https://onedrive.live.com/download.aspx?cid=0c5702aadd8306c5&amp;page=view&amp;resid=C5702AADD8306C5!6977&amp;parId=C5702AADD8306C5!1072&amp;app=Excel</t>
-  </si>
-  <si>
     <t>Caminho físico para o arquivo da tabela dos formulários</t>
   </si>
   <si>
@@ -321,7 +317,10 @@
     <t>C:\Users\GEPH-IC\Documents\Betson\A _redigir</t>
   </si>
   <si>
-    <t>C:\Users\GEPH-IC\Documents\Betson\Laudo Pericial\REGISTRO GEPH-DHPP_2023.xlsx</t>
+    <t>https://onedrive.live.com/download.aspx?resid=C5702AADD8306C5!9920&amp;cid=c5702aadd8306c5&amp;CT=1705524066496&amp;OR=ItemsView</t>
+  </si>
+  <si>
+    <t>C:\Users\GEPH-IC\Documents\Betson\Laudo Pericial\REGISTRO GEPH-DHPP_2024.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1120,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1164,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1205,23 +1204,23 @@
         <v>11</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1230,7 +1229,7 @@
         <v>Nome da aba das informações gerais em Forms.xlsx</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1239,7 +1238,7 @@
         <v>Nome da aba das informações da vítima em Forms.xlsx</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1248,7 +1247,7 @@
         <v>Nome da aba das informações do veículo em Forms.xlsx</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1257,7 +1256,7 @@
         <v>Nome da aba das informações de balística Forms.xlsx</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1265,8 +1264,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1277,7 +1275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -1297,92 +1295,92 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="44"/>
       <c r="E1" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="44"/>
       <c r="G1" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="44"/>
       <c r="I1" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" s="44"/>
       <c r="K1" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L1" s="44"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="C2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="E2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="I2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="K2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>33</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -1391,118 +1389,118 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="E4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="40" t="s">
-        <v>45</v>
-      </c>
       <c r="G4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="E5" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>52</v>
-      </c>
       <c r="G5" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>50</v>
-      </c>
       <c r="E6" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>59</v>
-      </c>
       <c r="G6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="26" t="s">
         <v>53</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="D7" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="39" t="s">
-        <v>66</v>
-      </c>
       <c r="G7" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>63</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>64</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="41"/>
@@ -1512,16 +1510,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="D9" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
@@ -1531,74 +1529,74 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>72</v>
-      </c>
       <c r="D10" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>73</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>76</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>77</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>78</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>80</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>82</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>84</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
@@ -1610,78 +1608,78 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>86</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>88</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>95</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>96</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Parametros.xlsx
+++ b/Parametros.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Caminhos e URLs para arquivos" sheetId="1" r:id="rId1"/>
     <sheet name="Nomes das colunas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -317,10 +317,10 @@
     <t>C:\Users\GEPH-IC\Documents\Betson\A _redigir</t>
   </si>
   <si>
-    <t>https://onedrive.live.com/download.aspx?resid=C5702AADD8306C5!9920&amp;cid=c5702aadd8306c5&amp;CT=1705524066496&amp;OR=ItemsView</t>
-  </si>
-  <si>
     <t>C:\Users\GEPH-IC\Documents\Betson\Laudo Pericial\REGISTRO GEPH-DHPP_2024.xlsx</t>
+  </si>
+  <si>
+    <t>https://onedrive.live.com/download.aspx?resid=C5702AADD8306C5!9920&amp;cid=c5702aadd8306c5&amp;CT=1708539624056&amp;OR=ItemsView</t>
   </si>
 </sst>
 </file>
@@ -690,7 +690,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -745,6 +745,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1120,7 +1123,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,7 +1183,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1199,12 +1202,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>100</v>
+      <c r="B10" s="45" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1265,6 +1268,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Parametros.xlsx
+++ b/Parametros.xlsx
@@ -11,11 +11,12 @@
     <sheet name="Nomes das colunas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="125">
   <si>
     <t>Caminhos e URLs para abrir informações, ou baixá-las quando não estiverem disponíveis fisicamente</t>
   </si>
@@ -41,9 +42,6 @@
     <t>Nome da aba para a tabela preenchida na base</t>
   </si>
   <si>
-    <t>.9</t>
-  </si>
-  <si>
     <t>Nome da aba da tabela de vítimas preenchida na base</t>
   </si>
   <si>
@@ -152,9 +150,6 @@
     <t>Nome do responsável pelo isolamento</t>
   </si>
   <si>
-    <t>nat</t>
-  </si>
-  <si>
     <t>req</t>
   </si>
   <si>
@@ -173,12 +168,6 @@
     <t>Matrícula do responsável pelo isolamento</t>
   </si>
   <si>
-    <t>cal</t>
-  </si>
-  <si>
-    <t>Especificação do calibre</t>
-  </si>
-  <si>
     <t>natCaso</t>
   </si>
   <si>
@@ -209,12 +198,6 @@
     <t>nascimento</t>
   </si>
   <si>
-    <t>env</t>
-  </si>
-  <si>
-    <t>Envolvidos</t>
-  </si>
-  <si>
     <t>tipoinst</t>
   </si>
   <si>
@@ -254,21 +237,12 @@
     <t>municipio</t>
   </si>
   <si>
-    <t>Município</t>
-  </si>
-  <si>
     <t>bairro</t>
   </si>
   <si>
-    <t>Bairro</t>
-  </si>
-  <si>
     <t>rua</t>
   </si>
   <si>
-    <t>Rua</t>
-  </si>
-  <si>
     <t>lat</t>
   </si>
   <si>
@@ -321,13 +295,109 @@
   </si>
   <si>
     <t>https://onedrive.live.com/download.aspx?resid=C5702AADD8306C5!9920&amp;cid=c5702aadd8306c5&amp;CT=1708539624056&amp;OR=ItemsView</t>
+  </si>
+  <si>
+    <t>CASOS .9</t>
+  </si>
+  <si>
+    <t>MUNICÍPIO</t>
+  </si>
+  <si>
+    <t>RUA</t>
+  </si>
+  <si>
+    <t>BAIRRO</t>
+  </si>
+  <si>
+    <t>qualIsol</t>
+  </si>
+  <si>
+    <t>Qualidade do isolamento</t>
+  </si>
+  <si>
+    <t>Tipo de cabelo</t>
+  </si>
+  <si>
+    <t>Cor da pele</t>
+  </si>
+  <si>
+    <t>Posição do Cadáver</t>
+  </si>
+  <si>
+    <t>Posição dos Membros [Superior esquerdo]</t>
+  </si>
+  <si>
+    <t>Posição dos Membros [Superior direito]</t>
+  </si>
+  <si>
+    <t>Posição dos Membros [Inferior esquerdo]</t>
+  </si>
+  <si>
+    <t>Posição dos Membros [Inferior direito]</t>
+  </si>
+  <si>
+    <t>Causa da Morte</t>
+  </si>
+  <si>
+    <t>posicCadaver</t>
+  </si>
+  <si>
+    <t>posicMSE</t>
+  </si>
+  <si>
+    <t>posicMSD</t>
+  </si>
+  <si>
+    <t>posicMIE</t>
+  </si>
+  <si>
+    <t>posicMID</t>
+  </si>
+  <si>
+    <t>causa</t>
+  </si>
+  <si>
+    <t>cabelo</t>
+  </si>
+  <si>
+    <t>pele</t>
+  </si>
+  <si>
+    <t>barba</t>
+  </si>
+  <si>
+    <t>bigode</t>
+  </si>
+  <si>
+    <t>cavanhaque</t>
+  </si>
+  <si>
+    <t>vestimentas</t>
+  </si>
+  <si>
+    <t>Vestimentas</t>
+  </si>
+  <si>
+    <t>Calçados</t>
+  </si>
+  <si>
+    <t>calcados</t>
+  </si>
+  <si>
+    <t>Pelos faciais [Barba]</t>
+  </si>
+  <si>
+    <t>Pelos faciais [Bigode]</t>
+  </si>
+  <si>
+    <t>Pelos faciais [Cavanhaque]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -364,6 +434,18 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -373,7 +455,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -634,17 +716,6 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
@@ -690,7 +761,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -722,32 +793,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1120,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,10 +1211,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1167,7 +1245,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1175,7 +1253,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1183,7 +1261,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1191,39 +1269,39 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>101</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1232,7 +1310,7 @@
         <v>Nome da aba das informações gerais em Forms.xlsx</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1241,7 +1319,7 @@
         <v>Nome da aba das informações da vítima em Forms.xlsx</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1250,7 +1328,7 @@
         <v>Nome da aba das informações do veículo em Forms.xlsx</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1259,8 +1337,11 @@
         <v>Nome da aba das informações de balística Forms.xlsx</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1271,16 +1352,16 @@
     <hyperlink ref="B10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,7 +1371,7 @@
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="23.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.140625" style="1" customWidth="1"/>
@@ -1298,93 +1379,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="44"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>27</v>
-      </c>
       <c r="C2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="E2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>27</v>
-      </c>
       <c r="G2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>27</v>
-      </c>
       <c r="I2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>27</v>
-      </c>
       <c r="K2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>32</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -1393,302 +1474,375 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="E4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="40" t="s">
-        <v>44</v>
-      </c>
       <c r="G4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="E5" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="25"/>
+        <v>55</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="E6" s="23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>53</v>
+        <v>113</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>60</v>
+        <v>97</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="30"/>
+      <c r="G8" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="30"/>
+        <v>62</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
+        <v>67</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+        <v>69</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+        <v>71</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
+        <v>94</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
+        <v>96</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="B21" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="B22" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="B23" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
+      <c r="B24" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1700,6 +1854,6 @@
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Parametros.xlsx
+++ b/Parametros.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Plantonista\Documents\Betson\Laudo Pericial\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64ECFAB-86D6-4A83-90DD-0B145D7A7987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caminhos e URLs para arquivos" sheetId="1" r:id="rId1"/>
     <sheet name="Nomes das colunas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -36,9 +52,6 @@
     <t>Pasta de destino dos arquivos trabalhados pelo programa</t>
   </si>
   <si>
-    <t>Caminho físico para a tabela preenchida na base</t>
-  </si>
-  <si>
     <t>Nome da aba para a tabela preenchida na base</t>
   </si>
   <si>
@@ -285,15 +298,6 @@
     <t>tipoexame</t>
   </si>
   <si>
-    <t>C:\Users\GEPH-IC\Documents\Betson\A _importadas</t>
-  </si>
-  <si>
-    <t>C:\Users\GEPH-IC\Documents\Betson\A _redigir</t>
-  </si>
-  <si>
-    <t>C:\Users\GEPH-IC\Documents\Betson\Laudo Pericial\REGISTRO GEPH-DHPP_2024.xlsx</t>
-  </si>
-  <si>
     <t>https://onedrive.live.com/download.aspx?resid=C5702AADD8306C5!9920&amp;cid=c5702aadd8306c5&amp;CT=1708539624056&amp;OR=ItemsView</t>
   </si>
   <si>
@@ -391,12 +395,24 @@
   </si>
   <si>
     <t>Pelos faciais [Cavanhaque]</t>
+  </si>
+  <si>
+    <t>C:\Users\Plantonista\Documents\Betson\A _redigir</t>
+  </si>
+  <si>
+    <t>REGISTRO GEPH-DHPP_2025.xlsx</t>
+  </si>
+  <si>
+    <t>Nome da tabela preenchida na base</t>
+  </si>
+  <si>
+    <t>C:\Users\Plantonista\Documents\Betson\A_importadas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -761,77 +777,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -907,14 +910,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -952,7 +958,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1024,7 +1030,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1197,159 +1203,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="70.140625" customWidth="1"/>
+    <col min="2" max="2" width="76.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="str">
+      <c r="A13" s="8" t="str">
         <f>CONCATENATE("Nome da aba das informações gerais em ",B11)</f>
         <v>Nome da aba das informações gerais em Forms.xlsx</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="str">
+      <c r="A14" s="1" t="str">
         <f>CONCATENATE("Nome da aba das informações da vítima em ", B11)</f>
         <v>Nome da aba das informações da vítima em Forms.xlsx</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="str">
+      <c r="A15" s="1" t="str">
         <f>CONCATENATE("Nome da aba das informações do veículo em ", B11)</f>
         <v>Nome da aba das informações do veículo em Forms.xlsx</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>17</v>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="str">
+      <c r="A16" s="10" t="str">
         <f>CONCATENATE("Nome da aba das informações de balística ", B11)</f>
         <v>Nome da aba das informações de balística Forms.xlsx</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="36"/>
+      <c r="B16" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1"/>
-    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -1357,492 +1360,463 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="24.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50" t="s">
+      <c r="L1" s="39"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="50"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="B3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="F3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="H3" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="H4" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="25" t="s">
+      <c r="B8" s="16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="C8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="28"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="H16" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="H14" s="44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="46" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G29" s="48"/>
+      <c r="G29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="6">
